--- a/demo-downloadFile/src/main/resources/static/excelTemplate/testDownload_1.xlsx
+++ b/demo-downloadFile/src/main/resources/static/excelTemplate/testDownload_1.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -189,21 +190,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -219,9 +220,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -528,91 +526,155 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="12.75" customWidth="1"/>
-    <col min="3" max="3" width="11.875" customWidth="1"/>
-    <col min="4" max="4" width="12.75" customWidth="1"/>
-    <col min="5" max="5" width="18.875" customWidth="1"/>
-    <col min="9" max="9" width="12.625" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" customWidth="1"/>
+    <col min="3" max="3" width="11.90625" customWidth="1"/>
+    <col min="4" max="4" width="12.7265625" customWidth="1"/>
+    <col min="5" max="5" width="18.90625" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" s="1"/>
+      <c r="B1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="8" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" ht="33.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="12.453125" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" customWidth="1"/>
+    <col min="3" max="3" width="11.90625" customWidth="1"/>
+    <col min="4" max="4" width="12.7265625" customWidth="1"/>
+    <col min="5" max="5" width="18.90625" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.4">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.4">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="8" spans="1:5" ht="17.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:5" ht="33.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>